--- a/test/master_spreadsheet_summer_25_26_test_1.xlsx
+++ b/test/master_spreadsheet_summer_25_26_test_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5D6B51-413F-4086-9512-56F68BC82B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4ABE1-7B1D-483F-87CD-ECD4AA4C0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Source ID</t>
   </si>
@@ -109,9 +109,6 @@
     <t>E-04</t>
   </si>
   <si>
-    <t>E-05</t>
-  </si>
-  <si>
     <t>E-06</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>FS-04</t>
   </si>
   <si>
-    <t>FS-05</t>
-  </si>
-  <si>
     <t>FS-06</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>FS-10</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>qq</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -617,13 +617,13 @@
         <v>45900</v>
       </c>
       <c r="F3" s="5">
-        <v>12000</v>
+        <v>-12000</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -644,11 +644,9 @@
     </row>
     <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -664,9 +662,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="28.8">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -686,14 +682,12 @@
     </row>
     <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="4">
         <v>45809</v>
       </c>
@@ -707,7 +701,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.8">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -728,7 +722,7 @@
     </row>
     <row r="9" spans="1:7" ht="28.8">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -749,7 +743,7 @@
     </row>
     <row r="10" spans="1:7" ht="28.8">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -763,14 +757,12 @@
       <c r="E10" s="4">
         <v>46022</v>
       </c>
-      <c r="F10" s="5">
-        <v>14000</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="43.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -845,7 +837,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -876,7 +868,7 @@
       <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -887,7 +879,9 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -905,7 +899,9 @@
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,7 +919,9 @@
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -956,10 +954,10 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -975,9 +973,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,12 +993,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="5">
         <v>8000</v>
       </c>
@@ -1007,13 +1007,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1029,9 +1028,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1047,9 +1048,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1065,9 +1068,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1083,9 +1088,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1101,9 +1108,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1119,14 +1128,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5">
-        <v>20000</v>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="4">
         <v>46011</v>
@@ -1137,9 +1148,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
